--- a/documentacion/MEF - generador.xlsx
+++ b/documentacion/MEF - generador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDyM\Practica 3\Entregable\CDyM-TE3\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5314C0-4758-471F-9A74-8C0C40DE7CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79651E1-9677-436F-8F6A-6CC2B007DF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2685" windowWidth="19440" windowHeight="15000" xr2:uid="{A2BAAD8B-E166-4723-A5A7-E8E115F14A37}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Por defecto</t>
   </si>
   <si>
-    <t>RST</t>
-  </si>
-  <si>
     <t>Se setean todos los parametros en el estado por defecto</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Se interpretan las cadenas de caracteres dentro del buffer circular, desde la posicion de la ultima lectura hasta una vez detectada la presion de ENTER</t>
   </si>
   <si>
-    <t>se detectó la secuencia RST</t>
-  </si>
-  <si>
     <t>se detectó la secuencia ON</t>
   </si>
   <si>
@@ -108,7 +102,13 @@
     <t>Se espera el ingreso de la tecla ENTER (caracter \r)</t>
   </si>
   <si>
-    <t>3,4,5,6,7</t>
+    <t>1,4,5,6,7</t>
+  </si>
+  <si>
+    <t>SET_RST</t>
+  </si>
+  <si>
+    <t>Inicio del sistema || se detectó la secuencia RST</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,16 +523,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4">
-        <v>1.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -540,16 +540,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -557,16 +557,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -574,16 +574,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -591,16 +591,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -608,16 +608,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,16 +625,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
